--- a/assets/resources/datatables/Scene3d.xlsx
+++ b/assets/resources/datatables/Scene3d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783099DB-54A5-4400-98FA-CF9DC97B9691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A403DE6-7C80-4E39-974D-EEE4951A5373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="3855" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9045" yWindow="2550" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -469,7 +469,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">

--- a/assets/resources/datatables/Scene3d.xlsx
+++ b/assets/resources/datatables/Scene3d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A403DE6-7C80-4E39-974D-EEE4951A5373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AC15C6-91E3-4922-B9B1-C9AAA75ECA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9045" yWindow="2550" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="2250" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,14 @@
   </si>
   <si>
     <t>MainScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择人物武器场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectPlayerScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,16 +409,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -484,6 +492,20 @@
       </c>
       <c r="E5">
         <v>5001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>5002</v>
       </c>
     </row>
   </sheetData>

--- a/assets/resources/datatables/Scene3d.xlsx
+++ b/assets/resources/datatables/Scene3d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AC15C6-91E3-4922-B9B1-C9AAA75ECA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73EC46B-1776-46E0-A4B4-FEDF320CB906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2250" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,14 @@
   </si>
   <si>
     <t>SelectPlayerScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -508,6 +516,20 @@
         <v>5002</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1003</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>5003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
